--- a/data_folder/iphonedata.xlsx
+++ b/data_folder/iphonedata.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2038,6 +2038,788 @@
       <c r="C93" s="2" t="inlineStr">
         <is>
           <t>4,386</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>iPhone 13 (128GB) - Starlight</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>51,499</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>24,203</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>iPhone 13 (128GB) - Midnight</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>51,499</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>24,203</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>iPhone 13 (128GB) - Green</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>51,499</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>24,203</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>iPhone 13 (128GB) - (Product) RED</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>49,999</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>24,203</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>iPhone 14 (128 GB) - Midnight</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>57,999</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>4,409</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>iPhone 14 (128 GB) - Purple</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>65,999</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>4,409</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>iPhone 14 Plus (128 GB) - Starlight</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>65,999</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>1,587</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>iPhone 14 Plus (128 GB) - Midnight</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>22,900</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>1,587</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>Watch SE (2nd Gen) [GPS 40 mm] Smart Watch w/Midnight Aluminium Case &amp; Midnight Sport Band. Fitness &amp; Sleep Tracker, Crash Detection, Heart Rate Monitor, Retina Display, Water Resistant</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>65,999</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>2,245</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>iPhone 14 (256 GB) - (Product) RED</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>61,999</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>4,409</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>iPhone 13 (256GB) - Midnight</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>27,900</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>24,203</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>Watch SE (2nd Gen) [GPS 44 mm] Smart Watch w/Starlight Aluminium Case &amp; Starllight Sport Band. Fitness &amp; Sleep Tracker, Crash Detection, Heart Rate Monitor, Retina Display, Water Resistant</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>1,56,900</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>2,245</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>iPhone 15 Pro Max (256 GB) - Blue Titanium</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>66,999</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>iPhone 14 (256 GB) - Starlight</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>27,900</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>4,409</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>Watch SE (2nd Gen)[GPS + Cellular 40 mm] Smart Watch w/Midnight Aluminium Case &amp; Midnight Sport Band Fitness &amp; Sleep Tracker, Crash Detection, Heart Rate Monitor, Retina Display,Water Resistant</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>61,999</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>2,245</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>iPhone 13 (256GB) - Blue</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>65,999</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>24,203</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>iPhone 14 Plus (128 GB) - Purple</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>65,999</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>1,587</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>iPhone 14 Plus (128 GB) - (Product) RED</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>61,999</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>1,587</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>iPhone 13 (256GB) - Pink</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>65,999</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>24,203</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>iPhone 14 Plus (128 GB) - Yellow</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>1,40,990</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>1,587</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>iPhone 15 Pro (256 GB) - Natural Titanium</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>76,999</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>iPhone 14 Plus (256 GB) - (Product) RED</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>1,30,990</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>1,587</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>iPhone 15 Pro (128 GB) - Natural Titanium</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>62,499</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 (128GB) - Starlight</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>51,499</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>24,202</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 (128GB) - Midnight</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>51,499</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>24,202</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 (128GB) - Green</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>51,499</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>24,202</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 14 (128 GB) - Midnight</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>57,999</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>4,410</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 14 (128 GB) - Purple</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>57,999</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>4,410</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 14 Plus (128 GB) - Starlight</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>65,999</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>1,587</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 14 Plus (128 GB) - Midnight</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>65,999</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>1,587</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>Apple Watch SE (2nd Gen) [GPS 40 mm] Smart Watch w/Midnight Aluminium Case &amp; Midnight Sport Band. Fitness &amp; Sleep Tracker, Crash Detection, Heart Rate Monitor, Retina Display, Water Resistant</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>23,900</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>2,245</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 (256GB) - Midnight</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>61,999</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>24,202</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 14 (256 GB) - (Product) RED</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>65,999</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>4,410</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>Apple Watch SE (2nd Gen) [GPS 44 mm] Smart Watch w/Starlight Aluminium Case &amp; Starllight Sport Band. Fitness &amp; Sleep Tracker, Crash Detection, Heart Rate Monitor, Retina Display, Water Resistant</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>27,900</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>2,245</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro Max (256 GB) - Blue Titanium</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>1,56,900</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>Apple Watch SE (2nd Gen)[GPS + Cellular 40 mm] Smart Watch w/Midnight Aluminium Case &amp; Midnight Sport Band Fitness &amp; Sleep Tracker, Crash Detection, Heart Rate Monitor, Retina Display,Water Resistant</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>27,900</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>2,245</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 (256GB) - Blue</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>61,999</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>24,202</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 14 Plus (128 GB) - (Product) RED</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>65,999</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>1,587</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 (256GB) - Pink</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>61,999</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>24,202</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 14 Plus (128 GB) - Purple</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>65,999</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>1,587</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 14 Plus (128 GB) - Yellow</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>65,999</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>1,587</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro (128 GB) - Natural Titanium</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>1,30,990</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro Max (256 GB) - Black Titanium</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>1,56,900</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro (256 GB) - Natural Titanium</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>1,40,990</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro Max (256 GB) - White Titanium</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>1,56,900</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Apple Watch SE (2nd Gen) [GPS 44 mm] Smart Watch w/Midnight Aluminium Case &amp; Midnight Sport Band. Fitness &amp; Sleep Tracker, Crash Detection, Heart Rate Monitor, Retina Display, Water Resistant</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>29,900</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2,245</t>
         </is>
       </c>
     </row>
@@ -4073,17 +4855,17 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="2" t="inlineStr">
         <is>
           <t>APPLE iPhone 14 (Blue, 256 GB)</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="2" t="inlineStr">
         <is>
           <t>₹68,999</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">2,62,697 Ratings </t>
         </is>
